--- a/tests/WebVella.Tefter.Tests/Files/Template1.xlsx
+++ b/tests/WebVella.Tefter.Tests/Files/Template1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.Tefter\tests\WebVella.Tefter.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE3963A-1FB3-417D-84C9-04E55BE7EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2796CE4-7E40-4947-A66B-E99970CA67DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7296" yWindow="3240" windowWidth="35976" windowHeight="19320" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="8940" yWindow="3540" windowWidth="35976" windowHeight="19320" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template1" sheetId="1" r:id="rId1"/>
+    <sheet name="{{name}}" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
     <t>{{name}}</t>
   </si>
   <si>
-    <t>{{price}}</t>
+    <t>{{price[0]}}</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
